--- a/biology/Médecine/Edmond_Landolt/Edmond_Landolt.xlsx
+++ b/biology/Médecine/Edmond_Landolt/Edmond_Landolt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Rodolphe Edmond Landolt (ou Edmund en allemand), né le 17 mai 1846 à Küttigen (paroisse de Kirchberg, district d'Aarau, AG, Suisse) et décédé le 9 mai 1926 à Paris 8e arrondissement, est un ophtalmologue suisse qui pratiqua en France.
 Il mène des recherches sur l'optique physiologique et développe de nombreuses méthodes d'examen des yeux, dont les Anneaux de Landolt, un test de vue utile en particulier pour les enfants et les analphabètes. Il étudie en particulier les muscles oculaires et leurs troubles. Pionnier dans leur étude et leur traitement, il découvre les « corps de Landolt » (cellules nerveuses situées entre les bâtonnets et les cônes de la couche externe de la rétine), et étudie les fonctions des muscles oculaires et conçoit de nouvelles opérations.
@@ -512,16 +524,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Edmond Landolt, fils de Rodolphe Landolt (1811-1892) et Rosina Baumgartner (1819-1892), fréquente les écoles de Lenzbourg et le lycée de Bâle[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Edmond Landolt, fils de Rodolphe Landolt (1811-1892) et Rosina Baumgartner (1819-1892), fréquente les écoles de Lenzbourg et le lycée de Bâle. 
 En 1869, Il obtient un doctorat en médecine à l'Université de Zurich, puis se voue à l'ophtalmologie. Il devient assistant, puis médecin-chef à la clinique ophtalmologique de Johann Horner à Zurich, poste qu’il abandonne par la suite pour se rendre avec une ambulance suisse sur les champs de combats français aux environs de Belfort durant la guerre franco-allemande de 1870-1871.
 En 1872 il entreprend des voyages d'étude afin de compléter sa formation médicale et se rend à Heidelberg chez Hermann von Helmholtz, le physiologiste, physicien et inventeur de l'ophtalmoscope ; à Halle chez Albrecht von Gräfe ; en Hollande chez Franciscus Cornelis Donders et Herman Snellen. Les deux Hollandais l'invitent à collaborer à la rédaction d'une grande encyclopédie ophtalmologique. Il travaille donc une année durant à Utrecht, au tome traitant des méthodes d'examens oculaires, avant de s'installer à Paris.       
-Le 12 juin 1874, il présente à Paris une seconde thèse de doctorat en médecine sur « le grossissement des images ophtalmoscopiques »[2] qu'il dédie à Franciscus Cornelis Donders.      
-En 1874, il fonde une clinique ophtalmologique privée rue Saint-André-des-Arts à Paris[1]. Il est bientôt considéré comme l’un des plus éminents oculistes en France. Venus de tous pays, des patients se rendent à Paris pour se faire soigner et opérer par lui. Il compte parmi ses patients l'artiste peintre américaine Mary Cassatt, le peintre français Edgar Degas, Guy de Maupassant, Elisabeth de Wield (alias Carmen Sylva) reine de Roumanie, etc. Il travaille également comme ophtalmologiste à l'Institution Nationale des Jeunes Aveugles et codirige avec Émile Javal le laboratoire ophtalmologique à la Sorbonne. 
+Le 12 juin 1874, il présente à Paris une seconde thèse de doctorat en médecine sur « le grossissement des images ophtalmoscopiques » qu'il dédie à Franciscus Cornelis Donders.      
+En 1874, il fonde une clinique ophtalmologique privée rue Saint-André-des-Arts à Paris. Il est bientôt considéré comme l’un des plus éminents oculistes en France. Venus de tous pays, des patients se rendent à Paris pour se faire soigner et opérer par lui. Il compte parmi ses patients l'artiste peintre américaine Mary Cassatt, le peintre français Edgar Degas, Guy de Maupassant, Elisabeth de Wield (alias Carmen Sylva) reine de Roumanie, etc. Il travaille également comme ophtalmologiste à l'Institution Nationale des Jeunes Aveugles et codirige avec Émile Javal le laboratoire ophtalmologique à la Sorbonne. 
 Le 3 septembre 1874 à Bâle, il épouse Valérie Hübscher (1852-1933), avec qui il aura 3 enfants : Fernand Landolt (1876-1941), Marc Landolt (1879-1928) et Mathilde Landolt (1884-1895).  
 En 1879, il est nommé officier de la Légion d'honneur.
-En 1881, avec Photinos Panas (1832-1903) et Antonin Poncet (1849-1913), il fonde Les Archives d'ophtalmologie[1], devenues en 1979 Journal français d'ophtalmologie.
+En 1881, avec Photinos Panas (1832-1903) et Antonin Poncet (1849-1913), il fonde Les Archives d'ophtalmologie, devenues en 1979 Journal français d'ophtalmologie.
 On lui doit près de 400 publications scientifiques, dont le Traité complet d'ophtalmologie, en quatre tomes, rédigé avec Louis de Wecker.
 Il est inhumé au cimetière du Montparnasse à Paris.
 </t>
@@ -552,7 +566,9 @@
           <t>Choix de publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>«Beitrag zur Anatomie der Retina», Université de Zurich, Hegner imp., Lenzbourg, 1870.
 «Anatomie der Retina von Frosch, Salamander und Triton», Max Schultze's Arch. f. micr., Anat VII, 1871.
@@ -638,7 +654,9 @@
           <t>Iconographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Edmond Landolt en 1879, par Vincenzo Gemito, Palazzo Zevallos Stigliano.
@@ -673,9 +691,11 @@
           <t>Anecdote</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Edmond Landolt figure comme personnage dans une nouvelle de Sherlock Holmes, The Demon Device (1981) de Robert Saffron[3]. Arthur Conan Doyle, créateur de Sherlock Holmes, était diplômé de l'École de médecine de l'Université d'Édimbourg. En 1890 il étudie l'ophtalmologie à Vienne et passe alors beaucoup de temps à Paris avec Edmond Landolt. En 1891, il retourne à Londres et ouvre un cabinet d'ophtalmologie près de la rue Harley. Sa carrière littéraire a rapidement dépassé sa carrière médicale, mais dans ses écrits il a fait de nombreuses références à la médecine, et à l'ophtalmologie en particulier.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Edmond Landolt figure comme personnage dans une nouvelle de Sherlock Holmes, The Demon Device (1981) de Robert Saffron. Arthur Conan Doyle, créateur de Sherlock Holmes, était diplômé de l'École de médecine de l'Université d'Édimbourg. En 1890 il étudie l'ophtalmologie à Vienne et passe alors beaucoup de temps à Paris avec Edmond Landolt. En 1891, il retourne à Londres et ouvre un cabinet d'ophtalmologie près de la rue Harley. Sa carrière littéraire a rapidement dépassé sa carrière médicale, mais dans ses écrits il a fait de nombreuses références à la médecine, et à l'ophtalmologie en particulier.
 </t>
         </is>
       </c>
